--- a/outcome/appendix/data/PHSMs/HFRS.xlsx
+++ b/outcome/appendix/data/PHSMs/HFRS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">流行性出血热</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>1309.62052616601</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>684</v>
+      </c>
+      <c r="I2" t="n">
+        <v>331.034471825051</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>1124.03919199931</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>374</v>
+      </c>
+      <c r="I3" t="n">
+        <v>321.211417201164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>1195.68488938522</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>291.900381486389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>1166.99785199143</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>540</v>
+      </c>
+      <c r="I5" t="n">
+        <v>150.458187777126</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>1444.65736903339</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>280.05944558241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>1467.36352354719</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>826</v>
+      </c>
+      <c r="I7" t="n">
+        <v>158.180814822942</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>1170.97982154595</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>313</v>
+      </c>
+      <c r="I8" t="n">
+        <v>368.00053668715</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>909.064131718982</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>503</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-88.6259200517979</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>853.771829132954</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>320</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37.1474018026462</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>1333.33400341818</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>611</v>
+      </c>
+      <c r="I11" t="n">
+        <v>224.922606096223</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>2279.1910652626</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1796</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-14.8011714563377</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>1981.71685320479</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1460</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23.1361648126883</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>1505.3344249825</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>562</v>
+      </c>
+      <c r="I14" t="n">
+        <v>433.504103751288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>1181.29765907071</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>365</v>
+      </c>
+      <c r="I15" t="n">
+        <v>295.449914750979</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>1276.50820135402</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>424</v>
+      </c>
+      <c r="I16" t="n">
+        <v>327.206115849826</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>1277.23342756642</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>510</v>
+      </c>
+      <c r="I17" t="n">
+        <v>241.017817247184</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>1540.44592030374</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>685</v>
+      </c>
+      <c r="I18" t="n">
+        <v>328.801358080273</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>1530.08635778844</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>724</v>
+      </c>
+      <c r="I19" t="n">
+        <v>278.771599744066</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>1213.10970636426</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>467</v>
+      </c>
+      <c r="I20" t="n">
+        <v>217.965081167754</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>949.510405626737</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>255</v>
+      </c>
+      <c r="I21" t="n">
+        <v>165.798757465723</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>898.838183415666</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>291</v>
+      </c>
+      <c r="I22" t="n">
+        <v>78.8704394702299</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>1378.40501048664</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>678</v>
+      </c>
+      <c r="I23" t="n">
+        <v>171.318443249462</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>2319.52868750239</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>2120</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-329.642801170864</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>2017.35647702138</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>2402</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-913.889045253218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>1536.22253420499</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>781</v>
+      </c>
+      <c r="I26" t="n">
+        <v>217.953206869197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>1209.86094442136</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>330</v>
+      </c>
+      <c r="I27" t="n">
+        <v>334.140787470714</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>1304.12508723981</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>344</v>
+      </c>
+      <c r="I28" t="n">
+        <v>411.067005935924</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>1303.89798450815</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>421.272500112069</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>1565.97954870101</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>553</v>
+      </c>
+      <c r="I30" t="n">
+        <v>463.121713051305</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>1554.71674755521</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>566</v>
+      </c>
+      <c r="I31" t="n">
+        <v>438.424363418713</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>1237.23195448853</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>404</v>
+      </c>
+      <c r="I32" t="n">
+        <v>282.342287945621</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>973.369746707817</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>235</v>
+      </c>
+      <c r="I33" t="n">
+        <v>187.065549383953</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>922.466205021416</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>205</v>
+      </c>
+      <c r="I34" t="n">
+        <v>165.983533554974</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>1401.7704438523</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>450.21072751912</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>2342.65591476398</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>895</v>
+      </c>
+      <c r="I36" t="n">
+        <v>896.041685492385</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
